--- a/pre/PREBG.xlsx
+++ b/pre/PREBG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Heston\PreOrder Sheets\New Pre Order Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\Viking-master\Viking-master\pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D399B15E-50D8-4426-B3FA-C5E6C7D9B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE19DB-FD08-4037-A0B8-C05E73104E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{606A00F7-CF32-448D-8A01-E12698B172F7}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8180FDCB-FC7A-4196-9652-63227251FCF8}">
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1335,49 +1335,17 @@
       <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9">
-        <v>44899</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" ref="E16:N17" si="0">D16+14</f>
-        <v>44913</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>44927</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>44941</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="0"/>
-        <v>44955</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="0"/>
-        <v>44969</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="0"/>
-        <v>44983</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="0"/>
-        <v>44997</v>
-      </c>
-      <c r="L16" s="9">
-        <f>K16+14</f>
-        <v>45011</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="0"/>
-        <v>45025</v>
-      </c>
-      <c r="N16" s="9">
-        <f t="shared" si="0"/>
-        <v>45039</v>
-      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1389,50 +1357,17 @@
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
-        <f>D16+24</f>
-        <v>44923</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>44937</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>44951</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>44965</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="0"/>
-        <v>44979</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="0"/>
-        <v>44993</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="0"/>
-        <v>45007</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="0"/>
-        <v>45021</v>
-      </c>
-      <c r="L17" s="9">
-        <f>K17+14</f>
-        <v>45035</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="0"/>
-        <v>45049</v>
-      </c>
-      <c r="N17" s="9">
-        <f t="shared" si="0"/>
-        <v>45063</v>
-      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
